--- a/biology/Botanique/Chamaedorea_fragrans/Chamaedorea_fragrans.xlsx
+++ b/biology/Botanique/Chamaedorea_fragrans/Chamaedorea_fragrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chamaedorea fragrans est une espèce de plantes à fleurs de la familles des Arecaceae (les palmiers) originaire du  Pérou[1]. Chamaedorea fragrans est indigène des contreforts orientaux des Andes péruviennes , où il pousse dans la forêt tropicale jusqu'à  800 m d'altitude.
+Chamaedorea fragrans est une espèce de plantes à fleurs de la familles des Arecaceae (les palmiers) originaire du  Pérou. Chamaedorea fragrans est indigène des contreforts orientaux des Andes péruviennes , où il pousse dans la forêt tropicale jusqu'à  800 m d'altitude.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des palmiers en touffes, dressés, parfois décombants, formant des groupes de 2 x 3 à 6 m. Avec des tiges de 0,5-1,5 cm de diamètre, vertes, annelées, avec des entre-nœuds de 5-15 cm de long. Les feuilles : 4-7, étalées, bifides, avec des gaines de 10-15 cm de long, tubulaires, à taches vertes, séchées brunes, persistantes, longitudinalement striées de nervures, le pétiole de 2-5 cm de long ; rachis de 20 cm de long, feuille de 40-50 x 15-20 cm, réduite à 10 - 6 cm de large à l'apex. Les inflorescences sont infrafoliaires, émergeant souvent au travers les anciennes gousses. Le fruit mesure 12 mm de long, globuleux-ellipsoïde, noir, brillant, avec des graines noires [2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des palmiers en touffes, dressés, parfois décombants, formant des groupes de 2 x 3 à 6 m. Avec des tiges de 0,5-1,5 cm de diamètre, vertes, annelées, avec des entre-nœuds de 5-15 cm de long. Les feuilles : 4-7, étalées, bifides, avec des gaines de 10-15 cm de long, tubulaires, à taches vertes, séchées brunes, persistantes, longitudinalement striées de nervures, le pétiole de 2-5 cm de long ; rachis de 20 cm de long, feuille de 40-50 x 15-20 cm, réduite à 10 - 6 cm de large à l'apex. Les inflorescences sont infrafoliaires, émergeant souvent au travers les anciennes gousses. Le fruit mesure 12 mm de long, globuleux-ellipsoïde, noir, brillant, avec des graines noires ,.
 </t>
         </is>
       </c>
@@ -543,18 +557,20 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chamaedorea fragrans a été décrite par (Ruiz &amp; Pav.) Mart. et publié dans Histoire Naturalis Palmarum 2: 4, t. 3, F. 1,2, en 1823 [4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaedorea fragrans a été décrite par (Ruiz &amp; Pav.) Mart. et publié dans Histoire Naturalis Palmarum 2: 4, t. 3, F. 1,2, en 1823 .
 Étymologie
-Chamaedorea : nom générique dérivé des mots grecs : χαμαί ( chamai ), qui signifie « sur le sol », et δωρεά ( dorea ), qui signifie « cadeau », faisant référence aux fruits facilement accessibles dans la nature (pour les palmophiles) de par la faible croissance de ces plantes [5].
-fragrans, épithète latine signifiant « parfum », se référant aux fleurs mâles très odorantes [2].
+Chamaedorea : nom générique dérivé des mots grecs : χαμαί ( chamai ), qui signifie « sur le sol », et δωρεά ( dorea ), qui signifie « cadeau », faisant référence aux fruits facilement accessibles dans la nature (pour les palmophiles) de par la faible croissance de ces plantes .
+fragrans, épithète latine signifiant « parfum », se référant aux fleurs mâles très odorantes .
 Synonymie
 Chamaedorea pavoniana H.Wendl. ex Dammer
 Chamaedorea ruizii H. Wendl. ex Dammer
 Nunezharia fragrans Ruiz &amp; Pav.
 Nunezharia verschaffeltii (Kerch. ) Kuntze
-Nunnezia fragrans (Ruiz &amp; Pav. ) Willd. [4]</t>
+Nunnezia fragrans (Ruiz &amp; Pav. ) Willd. </t>
         </is>
       </c>
     </row>
@@ -582,9 +598,11 @@
           <t>Nom commun</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sangapilla, siasia, chutasllium - Pérou[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sangapilla, siasia, chutasllium - Pérou.
 </t>
         </is>
       </c>
